--- a/Compiladores-G19/matrices.xlsx
+++ b/Compiladores-G19/matrices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Facultad\Compiladores-G19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Facultad\Compiladores-G19\Compiladores-G19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{17B89E75-96C9-4160-A0B0-A98BAE308430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D3C5A4-EA87-4C67-BF87-A581A1339EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2325" yWindow="2490" windowWidth="21600" windowHeight="11295" xr2:uid="{B262041E-6529-4A45-91DA-BFC8946D9AB8}"/>
+    <workbookView xWindow="7320" yWindow="-75" windowWidth="21600" windowHeight="11295" xr2:uid="{B262041E-6529-4A45-91DA-BFC8946D9AB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="43">
   <si>
     <t>F = 15</t>
   </si>
@@ -105,9 +105,6 @@
     <t>d - {"0"}</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>concat()</t>
   </si>
   <si>
@@ -133,6 +130,30 @@
   </si>
   <si>
     <t>as</t>
+  </si>
+  <si>
+    <t>concat, generarToken()</t>
+  </si>
+  <si>
+    <t>ASCII(), resetear()</t>
+  </si>
+  <si>
+    <t>e()</t>
+  </si>
+  <si>
+    <t>generarToken()</t>
+  </si>
+  <si>
+    <t>tokenEntero()</t>
+  </si>
+  <si>
+    <t>resetGenerarToken()</t>
+  </si>
+  <si>
+    <t>tokenFlotante()</t>
+  </si>
+  <si>
+    <t>reconocerComentario()</t>
   </si>
 </sst>
 </file>
@@ -529,15 +550,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C414953C-C430-47AB-9AE2-E37D39AE491A}">
-  <dimension ref="A1:X44"/>
+  <dimension ref="A1:XFD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" customWidth="1"/>
+    <col min="12" max="12" width="32.85546875" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="25.42578125" customWidth="1"/>
+    <col min="16" max="16" width="22" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" customWidth="1"/>
+    <col min="18" max="18" width="22.5703125" customWidth="1"/>
+    <col min="19" max="20" width="24" customWidth="1"/>
+    <col min="21" max="21" width="26.28515625" customWidth="1"/>
+    <col min="22" max="22" width="22.85546875" customWidth="1"/>
+    <col min="23" max="23" width="20.85546875" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -763,12 +805,24 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -791,12 +845,24 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -819,12 +885,24 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -847,12 +925,20 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -877,11 +963,21 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -905,11 +1001,21 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -933,11 +1039,21 @@
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -961,11 +1077,21 @@
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -989,11 +1115,21 @@
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1017,11 +1153,21 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2">
+        <v>11</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1045,11 +1191,21 @@
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1073,11 +1229,21 @@
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2">
+        <v>13</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1101,11 +1267,21 @@
       <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1263,73 +1439,73 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="V22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X22" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -1337,427 +1513,1039 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
+      <c r="B24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
+      <c r="B26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>5</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>6</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
+      <c r="B28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>7</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>8</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
+      <c r="B30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>9</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
+      <c r="B31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>10</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24 16384:16384" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>11</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24 16384:16384" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>12</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X34" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24 16384:16384" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>13</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24 16384:16384" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>14</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="XFD36" s="3"/>
+    </row>
+    <row r="37" spans="1:24 16384:16384" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>0</v>
       </c>
@@ -1784,7 +2572,7 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24 16384:16384" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>1</v>
       </c>
@@ -1811,30 +2599,30 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24 16384:16384" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24 16384:16384" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24 16384:16384" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" t="s">
         <v>32</v>
       </c>
-      <c r="C42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:24 16384:16384" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Compiladores-G19/matrices.xlsx
+++ b/Compiladores-G19/matrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Facultad\Compiladores-G19\Compiladores-G19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D3C5A4-EA87-4C67-BF87-A581A1339EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C5CA7D-578B-431A-AFA5-4A33AC833903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-75" windowWidth="21600" windowHeight="11295" xr2:uid="{B262041E-6529-4A45-91DA-BFC8946D9AB8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B262041E-6529-4A45-91DA-BFC8946D9AB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C414953C-C430-47AB-9AE2-E37D39AE491A}">
   <dimension ref="A1:XFD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
